--- a/GAN/output2.xlsx
+++ b/GAN/output2.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasbudig/Documents/Programmieren/python/attack-hypotheses-generation/GAN/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8A11AF-E2CD-7640-BB49-EFBDEF8F77FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-49780" yWindow="-8060" windowWidth="37200" windowHeight="23700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>software_0</t>
   </si>
@@ -45,12 +51,15 @@
   <si>
     <t>software_9</t>
   </si>
+  <si>
+    <t>3 mal 10 durchläufe</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +122,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -159,7 +176,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,9 +208,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,6 +260,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,14 +453,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K195"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D201" sqref="D201"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,12 +494,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>-1</v>
@@ -465,39 +520,39 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>-1</v>
       </c>
       <c r="K2">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>-1</v>
       </c>
       <c r="D3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>-1</v>
@@ -509,7 +564,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -520,19 +575,19 @@
         <v>-1</v>
       </c>
       <c r="D4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>-1</v>
@@ -544,15 +599,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -570,21 +625,21 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>-1</v>
       </c>
       <c r="K5">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -605,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>-1</v>
@@ -614,7 +669,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -625,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -649,42 +704,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -719,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -754,12 +809,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>-1</v>
@@ -780,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>-1</v>
@@ -789,15 +844,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -815,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -859,15 +914,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -885,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>-1</v>
       </c>
       <c r="K14">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -905,19 +960,19 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -929,15 +984,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -955,24 +1010,24 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -990,21 +1045,21 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>-1</v>
       </c>
       <c r="K17">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>-1</v>
@@ -1025,21 +1080,21 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>-1</v>
       </c>
       <c r="K18">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>-1</v>
@@ -1069,15 +1124,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1095,24 +1150,24 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1130,16 +1185,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1150,19 +1205,19 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1174,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1209,15 +1264,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1235,24 +1290,24 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>-1</v>
       </c>
       <c r="K24">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1270,24 +1325,24 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1305,16 +1360,16 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1325,19 +1380,19 @@
         <v>-1</v>
       </c>
       <c r="D27">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>-1</v>
@@ -1349,42 +1404,42 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1419,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1454,7 +1509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1489,7 +1544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1524,7 +1579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1535,19 +1590,19 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1559,42 +1614,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1605,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -1629,7 +1684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1640,19 +1695,19 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -1664,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1699,33 +1754,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>-1</v>
       </c>
       <c r="D38">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>-1</v>
@@ -1734,7 +1789,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1769,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1804,7 +1859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1839,7 +1894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1850,19 +1905,19 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -1874,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1909,15 +1964,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1935,16 +1990,16 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>-1</v>
       </c>
       <c r="K44">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1979,42 +2034,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <v>-1</v>
       </c>
       <c r="K46">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2049,15 +2104,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2075,24 +2130,24 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2110,56 +2165,56 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <v>-1</v>
@@ -2180,16 +2235,16 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <v>-1</v>
       </c>
       <c r="K51">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2200,19 +2255,19 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -2224,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2259,15 +2314,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2285,16 +2340,16 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2305,22 +2360,22 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -2329,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2337,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2358,13 +2413,13 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2399,12 +2454,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>-1</v>
@@ -2425,24 +2480,24 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J58">
         <v>-1</v>
       </c>
       <c r="K58">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2460,16 +2515,16 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J59">
         <v>-1</v>
       </c>
       <c r="K59">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2504,7 +2559,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2539,7 +2594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2550,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2574,33 +2629,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>-1</v>
       </c>
       <c r="D63">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J63">
         <v>-1</v>
@@ -2609,7 +2664,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2644,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2679,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2714,15 +2769,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2740,16 +2795,16 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2784,7 +2839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2819,42 +2874,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K70">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2889,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2924,7 +2979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2959,7 +3014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2994,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3005,19 +3060,19 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -3029,12 +3084,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>-1</v>
@@ -3055,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J76">
         <v>-1</v>
@@ -3064,7 +3119,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3075,19 +3130,19 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -3099,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3134,15 +3189,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3160,16 +3215,16 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J79">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K79">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3204,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3239,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3250,19 +3305,19 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -3274,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3309,7 +3364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3344,7 +3399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3355,19 +3410,19 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -3379,42 +3434,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J86">
         <v>-1</v>
       </c>
       <c r="K86">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3449,15 +3504,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -3475,16 +3530,16 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J88">
         <v>-1</v>
       </c>
       <c r="K88">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3519,15 +3574,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -3545,16 +3600,16 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K90">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3589,7 +3644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3624,12 +3679,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C93">
         <v>-1</v>
@@ -3650,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J93">
         <v>-1</v>
@@ -3659,7 +3714,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3694,7 +3749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3729,68 +3784,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C97">
         <v>-1</v>
       </c>
       <c r="D97">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J97">
         <v>-1</v>
@@ -3799,12 +3854,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C98">
         <v>-1</v>
@@ -3834,7 +3889,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3863,13 +3918,13 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3880,19 +3935,19 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -3904,42 +3959,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J101">
         <v>-1</v>
       </c>
       <c r="K101">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3974,7 +4029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4009,15 +4064,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -4035,16 +4090,16 @@
         <v>0</v>
       </c>
       <c r="I104">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J104">
         <v>-1</v>
       </c>
       <c r="K104">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4055,19 +4110,19 @@
         <v>1</v>
       </c>
       <c r="D105">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -4079,7 +4134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4114,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4122,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="C107">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -4143,18 +4198,18 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K107">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C108">
         <v>-1</v>
@@ -4175,16 +4230,16 @@
         <v>0</v>
       </c>
       <c r="I108">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J108">
         <v>-1</v>
       </c>
       <c r="K108">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4195,19 +4250,19 @@
         <v>1</v>
       </c>
       <c r="D109">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -4219,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4254,12 +4309,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C111">
         <v>-1</v>
@@ -4280,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="I111">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J111">
         <v>-1</v>
@@ -4289,47 +4344,47 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G112">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J112">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K112">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C113">
         <v>-1</v>
@@ -4359,12 +4414,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C114">
         <v>-1</v>
@@ -4385,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="I114">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J114">
         <v>-1</v>
@@ -4394,7 +4449,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4405,19 +4460,19 @@
         <v>1</v>
       </c>
       <c r="D115">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G115">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -4429,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4440,19 +4495,19 @@
         <v>-1</v>
       </c>
       <c r="D116">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E116">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G116">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I116">
         <v>-1</v>
@@ -4464,33 +4519,33 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C117">
         <v>-1</v>
       </c>
       <c r="D117">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G117">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J117">
         <v>-1</v>
@@ -4499,7 +4554,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -4534,33 +4589,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C119">
         <v>-1</v>
       </c>
       <c r="D119">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E119">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G119">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J119">
         <v>-1</v>
@@ -4569,7 +4624,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -4604,7 +4659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -4639,7 +4694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -4674,42 +4729,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E123">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G123">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J123">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K123">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -4720,19 +4775,19 @@
         <v>1</v>
       </c>
       <c r="D124">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G124">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -4744,15 +4799,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C125">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -4770,16 +4825,16 @@
         <v>0</v>
       </c>
       <c r="I125">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J125">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K125">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4790,19 +4845,19 @@
         <v>1</v>
       </c>
       <c r="D126">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -4814,7 +4869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -4849,7 +4904,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -4884,100 +4939,100 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C129">
         <v>-1</v>
       </c>
       <c r="D129">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J129">
         <v>-1</v>
       </c>
       <c r="K129">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C130">
         <v>0</v>
       </c>
       <c r="D130">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E130">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J130">
         <v>0</v>
       </c>
       <c r="K130">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C131">
         <v>-1</v>
       </c>
       <c r="D131">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G131">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H131">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>-1</v>
@@ -4989,30 +5044,30 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C132">
         <v>-1</v>
       </c>
       <c r="D132">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E132">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G132">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>-1</v>
@@ -5024,7 +5079,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5059,7 +5114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5094,7 +5149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -5105,19 +5160,19 @@
         <v>-1</v>
       </c>
       <c r="D135">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>-1</v>
@@ -5129,7 +5184,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5164,15 +5219,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -5190,51 +5245,51 @@
         <v>0</v>
       </c>
       <c r="I137">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J137">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K137">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C138">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D138">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E138">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G138">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J138">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K138">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -5269,7 +5324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -5304,15 +5359,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C141">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -5330,51 +5385,51 @@
         <v>0</v>
       </c>
       <c r="I141">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J141">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K141">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C142">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D142">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G142">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H142">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J142">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K142">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -5409,7 +5464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -5420,19 +5475,19 @@
         <v>-1</v>
       </c>
       <c r="D144">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>-1</v>
@@ -5444,7 +5499,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -5479,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -5514,47 +5569,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C147">
         <v>-1</v>
       </c>
       <c r="D147">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E147">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G147">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H147">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I147">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J147">
         <v>-1</v>
       </c>
       <c r="K147">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C148">
         <v>-1</v>
@@ -5575,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="I148">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J148">
         <v>-1</v>
@@ -5584,7 +5639,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -5619,42 +5674,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C150">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D150">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E150">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G150">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I150">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J150">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K150">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -5662,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="C151">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -5683,13 +5738,13 @@
         <v>0</v>
       </c>
       <c r="J151">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K151">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -5724,7 +5779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -5759,7 +5814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -5794,12 +5849,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C155">
         <v>-1</v>
@@ -5820,16 +5875,16 @@
         <v>0</v>
       </c>
       <c r="I155">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J155">
         <v>-1</v>
       </c>
       <c r="K155">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -5864,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -5872,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="C157">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -5893,18 +5948,18 @@
         <v>0</v>
       </c>
       <c r="J157">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K157">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C158">
         <v>-1</v>
@@ -5925,16 +5980,16 @@
         <v>0</v>
       </c>
       <c r="I158">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J158">
         <v>-1</v>
       </c>
       <c r="K158">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -5969,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -5980,19 +6035,19 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E160">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G160">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H160">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I160">
         <v>1</v>
@@ -6004,7 +6059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -6039,7 +6094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -6074,42 +6129,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C163">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D163">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E163">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G163">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J163">
         <v>-1</v>
       </c>
       <c r="K163">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -6120,19 +6175,19 @@
         <v>-1</v>
       </c>
       <c r="D164">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E164">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I164">
         <v>-1</v>
@@ -6144,7 +6199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -6179,7 +6234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -6214,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -6249,7 +6304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -6284,7 +6339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -6319,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -6354,7 +6409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -6365,19 +6420,19 @@
         <v>0</v>
       </c>
       <c r="D171">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E171">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G171">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H171">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -6389,7 +6444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -6424,15 +6479,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C173">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -6450,16 +6505,16 @@
         <v>0</v>
       </c>
       <c r="I173">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J173">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K173">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -6494,15 +6549,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C175">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -6520,16 +6575,16 @@
         <v>0</v>
       </c>
       <c r="I175">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J175">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K175">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -6564,42 +6619,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C177">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D177">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E177">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H177">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I177">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J177">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K177">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -6634,12 +6689,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C179">
         <v>-1</v>
@@ -6660,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I179">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J179">
         <v>-1</v>
@@ -6669,42 +6724,42 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C180">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D180">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E180">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G180">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H180">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J180">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K180">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -6739,42 +6794,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C182">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D182">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E182">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G182">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H182">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I182">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J182">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K182">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -6809,7 +6864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -6820,19 +6875,19 @@
         <v>1</v>
       </c>
       <c r="D184">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E184">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G184">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -6844,12 +6899,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C185">
         <v>-1</v>
@@ -6870,7 +6925,7 @@
         <v>0</v>
       </c>
       <c r="I185">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J185">
         <v>-1</v>
@@ -6879,12 +6934,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C186">
         <v>-1</v>
@@ -6905,21 +6960,21 @@
         <v>0</v>
       </c>
       <c r="I186">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J186">
         <v>-1</v>
       </c>
       <c r="K186">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C187">
         <v>-1</v>
@@ -6940,16 +6995,16 @@
         <v>0</v>
       </c>
       <c r="I187">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J187">
         <v>-1</v>
       </c>
       <c r="K187">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -6984,7 +7039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -6995,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="D189">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E189">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G189">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H189">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -7019,42 +7074,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C190">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D190">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E190">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G190">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H190">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I190">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J190">
         <v>-1</v>
       </c>
       <c r="K190">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -7089,42 +7144,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C192">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D192">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E192">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G192">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H192">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J192">
         <v>-1</v>
       </c>
       <c r="K192">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -7159,15 +7214,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>0</v>
       </c>
       <c r="B194">
-        <v>0.4444444444444444</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="C194">
-        <v>0.7555555555555556</v>
+        <v>0.75555555555555565</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -7191,10 +7246,10 @@
         <v>1</v>
       </c>
       <c r="K194">
-        <v>0.7000000000000001</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11">
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>0</v>
       </c>
@@ -7227,6 +7282,11 @@
       </c>
       <c r="K195">
         <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D200" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
